--- a/egg-proto-fsm.xlsx
+++ b/egg-proto-fsm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19180" windowHeight="3460"/>
+    <workbookView activeTab="0" windowWidth="19180" windowHeight="8860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
-  <si>
-    <t>state\event</t>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
-    <t>0x33</t>
-  </si>
-  <si>
-    <t>0x34-0x3B</t>
-  </si>
-  <si>
-    <t>0x3C</t>
-  </si>
-  <si>
-    <t>0xC3</t>
-  </si>
-  <si>
-    <t>0xC4-0xCB</t>
-  </si>
-  <si>
-    <t>0xCC</t>
-  </si>
-  <si>
-    <t>COUNTDOWN = 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
   <si>
     <t>EOF</t>
   </si>
@@ -60,28 +33,34 @@
     <t>clear\READY</t>
   </si>
   <si>
-    <t>append\33 3C C3 CC ADLER0</t>
-  </si>
-  <si>
-    <t>append\33 3C C3 CC ADLER0 ADLER1</t>
-  </si>
-  <si>
-    <t>append\33 3C C3 CC ADLER0 ADLER1 ADLER2</t>
-  </si>
-  <si>
-    <t>append\33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3</t>
-  </si>
-  <si>
-    <t>append\33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER</t>
-  </si>
-  <si>
-    <t>append and save len0\33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER LEN0</t>
-  </si>
-  <si>
-    <t>append and save len1\33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER LEN0 LEN1</t>
-  </si>
-  <si>
-    <t>append\33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER LEN0 LEN1 DATA</t>
+    <t>append\CC C3 3C 33 ADL0</t>
+  </si>
+  <si>
+    <t>append\CC C3 3C 33 ADL0 ADL1</t>
+  </si>
+  <si>
+    <t>append\CC C3 3C 33 ADL0 ADL1 ADL2</t>
+  </si>
+  <si>
+    <t>append\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3</t>
+  </si>
+  <si>
+    <t>append and save type\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE</t>
+  </si>
+  <si>
+    <t>append\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID</t>
+  </si>
+  <si>
+    <t>append\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER</t>
+  </si>
+  <si>
+    <t>append and save len0\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER LEN0</t>
+  </si>
+  <si>
+    <t>append and save len1\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER LEN0 LEN1</t>
+  </si>
+  <si>
+    <t>append\CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER LEN0 LEN1 DATA</t>
   </si>
   <si>
     <t>append\</t>
@@ -145,72 +124,85 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="M1" sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="57.92509014423077" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" style="0" width="72.78134014423078" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" style="0" width="13.35634014423077" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" style="0" width="10.570793269230771" bestFit="1" customWidth="1"/>
-    <col min="15" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="56.996574519230776" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" style="0" width="71.85282451923078" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" style="0" width="13.35634014423077" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" style="0" width="10.570793269230771" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>state\event</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0x00</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0x01-0x32</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0x33</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>0x34-0x3B</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>0x3C</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>0x3D-0xC2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>0xC3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>0xC4-0xCB</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>0xCC</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>0xCD-0xFF</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>COUNTDOWN = 0</t>
+        </is>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0x01-0x08</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0x09-0x32</t>
-        </is>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>0x3D-0xC2</t>
-        </is>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>0xCD-0xFF</t>
-        </is>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -219,618 +211,620 @@
           <t>READY</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>append\33</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>append\CC</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>append\33 3C</t>
-        </is>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>append\CC C3</t>
+        </is>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="inlineStr">
         <is>
-          <t>33 3C</t>
+          <t>CC C3</t>
         </is>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>append\CC C3 3C</t>
+        </is>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>append\33 3C C3</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="inlineStr">
         <is>
-          <t>33 3C C3</t>
+          <t>CC C3 3C</t>
         </is>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>append\CC C3 3C 33</t>
+        </is>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>append\33 3C C3 CC</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="inlineStr">
         <is>
-          <t>33 3C C3 CC</t>
+          <t>CC C3 3C 33</t>
         </is>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0</t>
+          <t>CC C3 3C 33 ADL0</t>
         </is>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1</t>
+          <t>CC C3 3C 33 ADL0 ADL1</t>
         </is>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2</t>
         </is>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3</t>
         </is>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>append\33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE</t>
         </is>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID</t>
         </is>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER LEN0</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER</t>
         </is>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER LEN0 LEN1</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER LEN0</t>
         </is>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="inlineStr">
         <is>
-          <t>33 3C C3 CC ADLER0 ADLER1 ADLER2 ADLER3 EGG VER LEN0 LEN1 DATA</t>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER LEN0 LEN1</t>
         </is>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CC C3 3C 33 ADL0 ADL1 ADL2 ADL3 TYPE DEVID VER LEN0 LEN1 DATA</t>
+        </is>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>callback\READY</t>
         </is>
       </c>
-      <c r="N15" t="s">
-        <v>10</v>
+      <c r="M16" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -858,8 +852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -886,8 +879,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
